--- a/TestData/CRM_Testdata.xlsx
+++ b/TestData/CRM_Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Testcase_Name</t>
   </si>
@@ -51,16 +51,28 @@
     <t>http://localhost:9090/espocrm/</t>
   </si>
   <si>
-    <t>Simple Scenario_one</t>
-  </si>
-  <si>
-    <t>Simple Scenario_two</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>Element_Timeout</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>Navigate to user creation page_IE</t>
+  </si>
+  <si>
+    <t>Navigate to user creation page_FF</t>
+  </si>
+  <si>
+    <t>Navigate to user creation page_CH</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>CH</t>
   </si>
 </sst>
 </file>
@@ -443,15 +455,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -463,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -493,13 +505,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -525,30 +537,40 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
